--- a/energy_hub/C_relax_positive.xlsx
+++ b/energy_hub/C_relax_positive.xlsx
@@ -12,10 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1">
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
@@ -672,7 +668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -974,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
@@ -1276,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4">
       <c r="A4" t="n">
         <v>0</v>
       </c>
@@ -1578,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5">
       <c r="A5" t="n">
         <v>0</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6">
       <c r="A6" t="n">
         <v>0</v>
       </c>
@@ -2182,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7">
       <c r="A7" t="n">
         <v>0</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8">
       <c r="A8" t="n">
         <v>0</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9">
       <c r="A9" t="n">
         <v>0</v>
       </c>
@@ -3088,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10">
       <c r="A10" t="n">
         <v>0</v>
       </c>
@@ -3390,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11">
       <c r="A11" t="n">
         <v>0</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12">
       <c r="A12" t="n">
         <v>0</v>
       </c>
@@ -3994,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13">
       <c r="A13" t="n">
         <v>0</v>
       </c>
@@ -4296,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14">
       <c r="A14" t="n">
         <v>0</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15">
       <c r="A15" t="n">
         <v>0</v>
       </c>
@@ -4900,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16">
       <c r="A16" t="n">
         <v>0</v>
       </c>
@@ -5202,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17">
       <c r="A17" t="n">
         <v>0</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19">
       <c r="A19" t="n">
         <v>0</v>
       </c>
@@ -6108,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20">
       <c r="A20" t="n">
         <v>0</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21">
       <c r="A21" t="n">
         <v>0</v>
       </c>
@@ -6712,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22">
       <c r="A22" t="n">
         <v>0</v>
       </c>
@@ -7014,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23">
       <c r="A23" t="n">
         <v>0</v>
       </c>
@@ -7316,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24">
       <c r="A24" t="n">
         <v>0</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25">
       <c r="A25" t="n">
         <v>0</v>
       </c>
